--- a/workfile/锐安项目文档/app问题清单.xlsx
+++ b/workfile/锐安项目文档/app问题清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
   <si>
     <t>问题编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>假期管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,15 +83,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>假期管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>请假类型有几种，相关详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于微信端需要引入redis，故延期一周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注详情记录及修改意见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题提出时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效期有专表可以取得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在系统层面没有限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以查看家园新系统中假期管理的内容获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以查看家园新系统中假期管理的内容获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于存在提交申请但未休假的情况，故可以撤销</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -541,16 +589,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -558,16 +606,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -575,16 +623,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -592,16 +640,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -609,16 +657,143 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
